--- a/public/ring utilisasi.xlsx
+++ b/public/ring utilisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\myapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DDFBAF-3667-41C5-950B-40B39D5C0FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD2B8C7-0BE9-4AA7-A8A6-CAE38FE6B4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
   </bookViews>
   <sheets>
     <sheet name="sumbagut" sheetId="1" r:id="rId1"/>
@@ -1253,15 +1253,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086B36CC-6BF7-4A6F-A4D4-40503F5C0013}">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -1455,15 +1455,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917118A0-60AE-46CB-8B43-93934C46C9DE}">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="54.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -1619,12 +1619,12 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="54.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -1914,11 +1914,11 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="44.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2214,11 +2214,11 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2458,12 +2458,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2647,9 +2647,9 @@
       <selection activeCell="E23" sqref="B21:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2945,11 +2945,11 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -3217,10 +3217,10 @@
       <selection activeCell="F5" sqref="F5:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -3404,11 +3404,11 @@
       <selection activeCell="E15" sqref="B13:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">

--- a/public/ring utilisasi.xlsx
+++ b/public/ring utilisasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\myapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD2B8C7-0BE9-4AA7-A8A6-CAE38FE6B4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E4B1B-D0A1-458E-AF31-57CBD0571B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="261">
   <si>
     <t>Ring</t>
   </si>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t>RIT-ODC.DAMKAR-ASR920-UPE-01</t>
-  </si>
-  <si>
-    <t>Total Utilitas</t>
   </si>
   <si>
     <t>SBU-SHELTER.KANTOR.JAGA.GEUMPANG-NE8000.M14-UPE-01</t>
@@ -720,9 +717,6 @@
     <t>SBT-PLN.BALOI-NE8000.M1A-UPE-02</t>
   </si>
   <si>
-    <t>not found, mungkin terminatingnya salah</t>
-  </si>
-  <si>
     <t>JKT-SHELTER.GANDARIA-NE8000.M8-NPE-01</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -743,6 +737,126 @@
   </si>
   <si>
     <t>RIT-GI.PALOPO-MX204-UPE-01</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>100GE0/11/1</t>
+  </si>
+  <si>
+    <t>100GE0/11/0</t>
+  </si>
+  <si>
+    <t>100GE0/12/1</t>
+  </si>
+  <si>
+    <t>100GE0/12/0</t>
+  </si>
+  <si>
+    <t>50|100GE0/10/0</t>
+  </si>
+  <si>
+    <t>50|100GE0/9/0</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/7/0</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/3/1</t>
+  </si>
+  <si>
+    <t>Te0/0/1</t>
+  </si>
+  <si>
+    <t>50|100GE0/5/0</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/3/2</t>
+  </si>
+  <si>
+    <t>Te0/1</t>
+  </si>
+  <si>
+    <t>100GE0/3/1</t>
+  </si>
+  <si>
+    <t>100GE0/4/0</t>
+  </si>
+  <si>
+    <t>HundredGigE0/0/0/25</t>
+  </si>
+  <si>
+    <t>50|100GE0/6/0</t>
+  </si>
+  <si>
+    <t>et-2/1/2</t>
+  </si>
+  <si>
+    <t>et-0/0/0</t>
+  </si>
+  <si>
+    <t>et-0/0/1</t>
+  </si>
+  <si>
+    <t>et-2/1/5</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/5/8</t>
+  </si>
+  <si>
+    <t>100GE0/5/1</t>
+  </si>
+  <si>
+    <t>100GE0/5/0</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/4/1</t>
+  </si>
+  <si>
+    <t>et-0/0/2</t>
+  </si>
+  <si>
+    <t>xe-0/1/5</t>
+  </si>
+  <si>
+    <t>Te0/0/24</t>
+  </si>
+  <si>
+    <t>TenGigE0/0/0/14</t>
+  </si>
+  <si>
+    <t>TenGigE0/1/0/0</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/3/6</t>
+  </si>
+  <si>
+    <t>xe-0/1/2</t>
+  </si>
+  <si>
+    <t>Te0/0/27</t>
+  </si>
+  <si>
+    <t>xe-0/1/0</t>
+  </si>
+  <si>
+    <t>Interface Te0/0/3</t>
+  </si>
+  <si>
+    <t>Interface 100GE0/12/0</t>
+  </si>
+  <si>
+    <t>Interface 100GE0/11/1</t>
+  </si>
+  <si>
+    <t>Interface Te0/0/2</t>
+  </si>
+  <si>
+    <t>Interface xe-0/0/3:0</t>
+  </si>
+  <si>
+    <t>TIDAK ADA</t>
   </si>
 </sst>
 </file>
@@ -801,7 +915,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,30 +936,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF305496"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -872,8 +968,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -889,7 +1000,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,9 +1011,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -912,27 +1020,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="4" xr:uid="{AE9D0DFA-2F04-4388-B6E9-67AFBCF47F76}"/>
@@ -1251,359 +1361,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086B36CC-6BF7-4A6F-A4D4-40503F5C0013}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E14"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
-        <v>21.89</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5">
-        <v>32.64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5">
-        <v>30.88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="D11" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
-        <v>25.76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5">
-        <v>8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="5" t="s">
+      <c r="D12" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5">
-        <v>1</v>
+      <c r="D13" s="9" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917118A0-60AE-46CB-8B43-93934C46C9DE}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="13">
-        <v>83.42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="12" t="s">
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="13">
-        <v>22.29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="12" t="s">
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="13">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.749</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="13">
-        <v>12.91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="12" t="s">
+      <c r="D7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="13">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="12" t="s">
+      <c r="D8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="13">
-        <v>6.81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="12" t="s">
+      <c r="D9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="13">
-        <v>7.34</v>
+      <c r="D10" s="9" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1613,592 +1726,584 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C7BD66-863C-455D-8F0D-8E1F7498274F}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8">
-        <v>18.440000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="6" t="s">
+      <c r="D2" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="8">
-        <v>12.19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="6" t="s">
+      <c r="D3" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8">
-        <v>15.83</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="6" t="s">
+      <c r="D4" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="8">
-        <v>18.440000000000001</v>
-      </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="6" t="s">
+      <c r="D5" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="8">
-        <v>23.03</v>
-      </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="2" t="s">
+      <c r="D6" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="8">
-        <v>8.06</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="6" t="s">
+      <c r="D7" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="8">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="6" t="s">
+      <c r="D8" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="6" t="s">
+      <c r="D9" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="8">
-        <v>20.88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="6" t="s">
+      <c r="D10" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="8">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="6" t="s">
+      <c r="D11" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="6" t="s">
+      <c r="D12" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="8">
-        <v>0.91999999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="6" t="s">
+      <c r="D13" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="8">
-        <v>12.65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="6" t="s">
+      <c r="D14" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="8">
-        <v>12.19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="6" t="s">
+      <c r="D15" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="8">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="6" t="s">
+      <c r="D16" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="8">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="6" t="s">
+      <c r="D17" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="8">
-        <v>10.67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="6" t="s">
+      <c r="D18" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="8">
-        <v>30.77</v>
+      <c r="D19" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F5:F7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE57ADC-EF66-4A86-8D55-95202DAEC146}">
-  <dimension ref="B2:E21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="D1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="9">
-        <v>81.13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="D3" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="9">
-        <v>85.13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="9">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="D5" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="9">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>57</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="9">
-        <v>7.15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="D7" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>60</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="9">
-        <v>19.79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="D9" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="9">
-        <v>65.38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>62</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="9">
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="9">
-        <v>19.21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>65</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.84399999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>67</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="9">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="9">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="9">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>71</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="9">
-        <v>34.06</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>53</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="9">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="9">
-        <v>31.09</v>
+      <c r="D20" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2208,241 +2313,241 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE20B5F5-E631-460D-A915-E4D905B53D35}">
-  <dimension ref="B2:E17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="C2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="9">
-        <v>31.66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="D3" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="9">
-        <v>115.16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="9">
-        <v>31.66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>190</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="9">
-        <v>52.93</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="9">
-        <v>34.01</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="9">
-        <v>34.090000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>192</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.88300000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="D9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="9">
-        <v>11.82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="9">
-        <v>20.309999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="9">
-        <v>34.01</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="9">
-        <v>33.99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="9">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="9">
-        <v>1</v>
+      <c r="D16" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2452,186 +2557,186 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12777494-EA3E-46B9-A3EB-5D010688E1E6}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="D1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="9">
-        <v>24.45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="D3" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" s="9">
-        <v>34.08</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="9">
-        <v>39.4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="D6" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="9">
-        <v>34.130000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="9">
-        <v>34.17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="D8" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="9">
-        <v>33.630000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="D9" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="9">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="D10" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="9">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>211</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" s="9">
-        <v>8.09</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="9">
-        <v>15.25</v>
+      <c r="D12" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2641,295 +2746,296 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7C4C64-188D-466E-817E-5F0AEA419870}">
-  <dimension ref="B2:E21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="B21:E23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
+      <c r="D1" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="9">
-        <v>51.85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="3" t="s">
+      <c r="D2" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="9">
-        <v>68.92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3" t="s">
+      <c r="D3" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="9">
-        <v>85.36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="3" t="s">
+      <c r="D4" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="9">
-        <v>56.95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="3" t="s">
+      <c r="D5" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="9">
-        <v>66.540000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="3" t="s">
+      <c r="D6" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C7" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="9">
-        <v>37.43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="3" t="s">
+      <c r="D7" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="9">
-        <v>32.39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="3" t="s">
+      <c r="D8" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="9">
-        <v>63.42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="3" t="s">
+      <c r="D9" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B10" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="9">
-        <v>18.62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
+      <c r="D10" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C11" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="9">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="3" t="s">
+      <c r="D11" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="9">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="3" t="s">
+      <c r="D12" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C13" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="9">
-        <v>22.68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="3" t="s">
+      <c r="D13" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C14" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="9">
-        <v>7.46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="3" t="s">
+      <c r="D14" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C15" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="9">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3" t="s">
+      <c r="D15" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="9">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="3" t="s">
+      <c r="D16" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="9">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="3" t="s">
+      <c r="D17" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="C18" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="9">
-        <v>28.26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="3" t="s">
+      <c r="D18" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="B19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C19" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="9">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="3" t="s">
+      <c r="D19" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B20" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C20" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="9">
-        <v>4.4000000000000004</v>
+      <c r="D20" s="15" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2939,269 +3045,269 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFF8A72-2FDC-4257-851F-AB40BDBF75D7}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="D1" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="9">
-        <v>76.34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="9">
-        <v>59.09</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="9">
-        <v>28.52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="9">
-        <v>22.28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="9">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="9">
-        <v>21.09</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="9">
-        <v>17.760000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="9">
-        <v>16.53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>216</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="9">
-        <v>65.760000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="9">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="D13" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="9">
-        <v>31.63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>133</v>
+      </c>
+      <c r="D14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="9">
-        <v>34.11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="9">
-        <v>11.49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="9">
-        <v>27.91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="9">
-        <v>21.97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="9">
-        <v>6.09</v>
+      <c r="D18" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3211,184 +3317,185 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D799BA18-8F82-4A65-84A4-0EF6CB2BBE81}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:N5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="D1" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="9">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="9">
-        <v>15.69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="9">
-        <v>75.650000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="9">
-        <v>22.99</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="9">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="9">
-        <v>57.49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4.47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="9">
-        <v>37.39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="9">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="9">
-        <v>9.6999999999999993</v>
+      <c r="D12" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3398,171 +3505,171 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AE07E1-59F6-46A7-80B9-40A061385ED3}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="B13:E15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="D1" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="9">
-        <v>28.68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="D3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="9">
-        <v>14.51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="9">
-        <v>13.09</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="D5" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="9">
-        <v>15.68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>161</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="9">
-        <v>10.029999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="9">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4.4700000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="9">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="9">
-        <v>9.85</v>
+      <c r="D11" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
